--- a/biology/Médecine/Classe_ATC_M01/Classe_ATC_M01.xlsx
+++ b/biology/Médecine/Classe_ATC_M01/Classe_ATC_M01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M01, dénommée « Produits anti-inflammatoires et antirhumatismaux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M01, dénommée « Produits anti-inflammatoires et antirhumatismaux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M01AA Butylpyrazolidines
-M01AA01 Phénylbutazone
+          <t>M01AA Butylpyrazolidines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M01AA01 Phénylbutazone
 M01AA02 Mofébutazone
 M01AA03 Oxyphenbutazone
 M01AA05 Clofézone
 M01AA06 Kébuzone
 « QM01AA90 » Suxibuzone
-« QM01AA99 » Associations
-M01AB Dérivés de l'acide acétique et apparentés
-M01AB01 Indométacine
+« QM01AA99 » Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M01AB Dérivés de l'acide acétique et apparentés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M01AB01 Indométacine
 M01AB02 Sulindac
 M01AB03 Tolmétine (en)
 M01AB04 Zomépirac (en)
@@ -540,16 +591,84 @@
 M01AB16 Acéclofénac
 M01AB17 Bufexamac
 M01AB51 Indométacine, associations
-M01AB55 Diclofénac, associations
-M01AC Oxicams
-M01AC01 Piroxicam
+M01AB55 Diclofénac, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M01AC Oxicams</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M01AC01 Piroxicam
 M01AC02 Ténoxicam
 M01AC04 Droxicam (en)
 M01AC05 Lornoxicam (en)
 M01AC06 Méloxicam
-M01AC56 Méloxicam, associations
-M01AE Dérivés de l'acide propionique
-M01AE01 Ibuprofène
+M01AC56 Méloxicam, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M01AE Dérivés de l'acide propionique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M01AE01 Ibuprofène
 M01AE02 Naproxène
 M01AE03 Kétoprofène
 M01AE04 Fénoprofène (en)
@@ -573,15 +692,83 @@
 M01AE56 Naproxène et misoprostol
 « QM01AE90 » Védaprofène (en)
 « QM01AE91 » Carprofène (en)
-« QM01AE92 » Tépoxaline (en)
-M01AG Fénamates
-M01AG01 Acide méfénamique
+« QM01AE92 » Tépoxaline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>M01AG Fénamates</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M01AG01 Acide méfénamique
 M01AG02 Acide tolfénamique
 M01AG03 Acide flufénamique
 M01AG04 Acide méclofénamique
-« QM01AG90 » Flunixine (en)
-M01AH Coxibs
-M01AH01 Célécoxib
+« QM01AG90 » Flunixine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M01AH Coxibs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>M01AH01 Célécoxib
 M01AH02 Rofécoxib
 M01AH03 Valdécoxib
 M01AH04 Parécoxib
@@ -592,9 +779,43 @@
 « QM01AH91 » Robénacoxib (en)
 « QM01AH92 » Mavacoxib (en)
 « QM01AH93 » Cimicoxib (en)
-« QM01AH94 » Déracoxib (en)
-M01AX Autres anti-inflammatoires antirhumatismaux non stéroïdiens
-M01AX01 Nabumétone
+« QM01AH94 » Déracoxib (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M01A Anti-inflammatoires, antirhumatismaux, non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M01AX Autres anti-inflammatoires antirhumatismaux non stéroïdiens</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M01AX01 Nabumétone
 M01AX02 Acide niflumique
 M01AX04 Azapropazone (en)
 M01AX05 Glucosamine
@@ -619,81 +840,227 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_M01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>M01B Anti-inflammatoires antirhumatismaux en association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>M01BA Anti-inflammatoires antirhumatismaux en association avec des corticoïdes
-M01BA01 Phénylbutazone et corticoïdes
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>M01BA Anti-inflammatoires antirhumatismaux en association avec des corticoïdes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>M01BA01 Phénylbutazone et corticoïdes
 M01BA02 Dipyrocétyl et corticoïdes
 M01BA03 Acide acétylsalicylique et corticoïdes
-QM01BA99 Associations
-M01BX Autres anti-inflammatoires antirhumatismaux en association avec d'autres médicaments
-Classe vide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_M01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+QM01BA99 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>M01B Anti-inflammatoires antirhumatismaux en association</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>M01BX Autres anti-inflammatoires antirhumatismaux en association avec d'autres médicaments</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>M01C Antirhumatismaux spécifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>M01CA Quinoléines
-M01CA03 Oxycinchophène
-M01CB Médicaments à base d'or
-M01CB01 Aurothiomalate de sodium
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M01CA Quinoléines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>M01CA03 Oxycinchophène</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>M01C Antirhumatismaux spécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M01CB Médicaments à base d'or</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>M01CB01 Aurothiomalate de sodium
 M01CB02 Aurothiosulfate de sodium
 M01CB03 Auranofine
 M01CB04 Aurothioglucose
-M01CB05 Aurotioprol
-M01CC Pénicillamine et analogues
-M01CC01 Pénicillamine
-M01CC02 Bucillamine
-M01CX Autres antirhumatismaux spécifiques
-Classe vide.</t>
+M01CB05 Aurotioprol</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>M01C Antirhumatismaux spécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M01CC Pénicillamine et analogues</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>M01CC01 Pénicillamine
+M01CC02 Bucillamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>M01C Antirhumatismaux spécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M01CX Autres antirhumatismaux spécifiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
         </is>
       </c>
     </row>
